--- a/Chapter-1/Exercise-1/IBM.xlsx
+++ b/Chapter-1/Exercise-1/IBM.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaka/Documents/financial-model-and-calculation/Chapter-1/Exercise-1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FBBB88-FA29-1C45-AA3B-1D17DDEA80E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19940" windowHeight="7960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBM" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,9 +45,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">IBM </t>
-  </si>
-  <si>
     <t>开盘价</t>
   </si>
   <si>
@@ -53,42 +56,20 @@
   <si>
     <t>最低价</t>
   </si>
+  <si>
+    <t>日期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="###,###,##0.00000"/>
-    <numFmt numFmtId="179" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="###,###,##0.00000"/>
+    <numFmt numFmtId="169" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="170" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,336 +79,20 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -435,315 +100,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1030,41 +409,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6285714285714" customWidth="1"/>
-    <col min="2" max="2" width="9.5047619047619" customWidth="1"/>
-    <col min="3" max="3" width="10.5047619047619" customWidth="1"/>
-    <col min="4" max="5" width="9.5047619047619" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1072,10 +451,10 @@
         <v>43832</v>
       </c>
       <c r="B2" s="2">
-        <v>135.2</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="C2" s="3">
-        <v>135.775</v>
+        <v>135.77500000000001</v>
       </c>
       <c r="D2" s="2">
         <v>135.82</v>
@@ -1109,10 +488,10 @@
         <v>133.29</v>
       </c>
       <c r="C4" s="3">
-        <v>133.925</v>
+        <v>133.92500000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>134.277</v>
+        <v>134.27699999999999</v>
       </c>
       <c r="E4" s="2">
         <v>133.21</v>
@@ -1123,16 +502,16 @@
         <v>43837</v>
       </c>
       <c r="B5" s="2">
-        <v>133.42</v>
+        <v>133.41999999999999</v>
       </c>
       <c r="C5" s="3">
-        <v>134.775</v>
+        <v>134.77500000000001</v>
       </c>
       <c r="D5" s="2">
         <v>134.815</v>
       </c>
       <c r="E5" s="2">
-        <v>133.42</v>
+        <v>133.41999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1143,10 +522,10 @@
         <v>134.24</v>
       </c>
       <c r="C6" s="3">
-        <v>135.075</v>
+        <v>135.07499999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>135.258</v>
+        <v>135.25800000000001</v>
       </c>
       <c r="E6" s="2">
         <v>134.24</v>
@@ -1163,7 +542,7 @@
         <v>136.6</v>
       </c>
       <c r="D7" s="2">
-        <v>136.743</v>
+        <v>136.74299999999999</v>
       </c>
       <c r="E7" s="2">
         <v>135.488</v>
@@ -1177,13 +556,13 @@
         <v>137</v>
       </c>
       <c r="C8" s="3">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>138.347</v>
+        <v>138.34700000000001</v>
       </c>
       <c r="E8" s="2">
-        <v>136.811</v>
+        <v>136.81100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1191,13 +570,13 @@
         <v>43843</v>
       </c>
       <c r="B9" s="2">
-        <v>135.48</v>
+        <v>135.47999999999999</v>
       </c>
       <c r="C9" s="3">
         <v>135.125</v>
       </c>
       <c r="D9" s="2">
-        <v>136.05</v>
+        <v>136.05000000000001</v>
       </c>
       <c r="E9" s="2">
         <v>135.125</v>
@@ -1211,7 +590,7 @@
         <v>136.54</v>
       </c>
       <c r="C10" s="3">
-        <v>136.925</v>
+        <v>136.92500000000001</v>
       </c>
       <c r="D10" s="2">
         <v>137</v>
@@ -1228,10 +607,10 @@
         <v>137</v>
       </c>
       <c r="C11" s="3">
-        <v>137.55</v>
+        <v>137.55000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>137.936</v>
+        <v>137.93600000000001</v>
       </c>
       <c r="E11" s="2">
         <v>136.9</v>
@@ -1245,10 +624,10 @@
         <v>137.32</v>
       </c>
       <c r="C12" s="3">
-        <v>138.175</v>
+        <v>138.17500000000001</v>
       </c>
       <c r="D12" s="2">
-        <v>138.175</v>
+        <v>138.17500000000001</v>
       </c>
       <c r="E12" s="2">
         <v>137.29</v>
@@ -1262,13 +641,13 @@
         <v>136.84</v>
       </c>
       <c r="C13" s="3">
-        <v>136.675</v>
+        <v>136.67500000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>137.843</v>
+        <v>137.84299999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>136.33</v>
+        <v>136.33000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1282,7 +661,7 @@
         <v>138.4</v>
       </c>
       <c r="D14" s="2">
-        <v>138.772</v>
+        <v>138.77199999999999</v>
       </c>
       <c r="E14" s="2">
         <v>137.9</v>
@@ -1293,16 +672,16 @@
         <v>43852</v>
       </c>
       <c r="B15" s="2">
-        <v>143.05</v>
+        <v>143.05000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>143.925</v>
+        <v>143.92500000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>145.776</v>
+        <v>145.77600000000001</v>
       </c>
       <c r="E15" s="2">
-        <v>143.05</v>
+        <v>143.05000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1310,13 +689,13 @@
         <v>43853</v>
       </c>
       <c r="B16" s="2">
-        <v>144.406</v>
+        <v>144.40600000000001</v>
       </c>
       <c r="C16" s="3">
         <v>142.4</v>
       </c>
       <c r="D16" s="2">
-        <v>144.406</v>
+        <v>144.40600000000001</v>
       </c>
       <c r="E16" s="2">
         <v>141.858</v>
@@ -1327,13 +706,13 @@
         <v>43854</v>
       </c>
       <c r="B17" s="2">
-        <v>143.39</v>
+        <v>143.38999999999999</v>
       </c>
       <c r="C17" s="3">
         <v>141.75</v>
       </c>
       <c r="D17" s="2">
-        <v>143.818</v>
+        <v>143.81800000000001</v>
       </c>
       <c r="E17" s="2">
         <v>141.465</v>
@@ -1350,7 +729,7 @@
         <v>138.65</v>
       </c>
       <c r="D18" s="2">
-        <v>139.998</v>
+        <v>139.99799999999999</v>
       </c>
       <c r="E18" s="2">
         <v>138.227</v>
@@ -1364,10 +743,10 @@
         <v>138.62</v>
       </c>
       <c r="C19" s="3">
-        <v>140.075</v>
+        <v>140.07499999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>140.421</v>
+        <v>140.42099999999999</v>
       </c>
       <c r="E19" s="2">
         <v>138.62</v>
@@ -1378,16 +757,16 @@
         <v>43859</v>
       </c>
       <c r="B20" s="2">
-        <v>139.2</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="C20" s="3">
-        <v>138.95</v>
+        <v>138.94999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>139.2</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="E20" s="2">
-        <v>137.546</v>
+        <v>137.54599999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1398,13 +777,13 @@
         <v>137.69</v>
       </c>
       <c r="C21" s="3">
-        <v>135.825</v>
+        <v>135.82499999999999</v>
       </c>
       <c r="D21" s="2">
         <v>137.69</v>
       </c>
       <c r="E21" s="2">
-        <v>135.135</v>
+        <v>135.13499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1415,13 +794,13 @@
         <v>145</v>
       </c>
       <c r="C22" s="3">
-        <v>142.2</v>
+        <v>142.19999999999999</v>
       </c>
       <c r="D22" s="2">
         <v>145</v>
       </c>
       <c r="E22" s="2">
-        <v>141.412</v>
+        <v>141.41200000000001</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1446,16 +825,16 @@
         <v>43865</v>
       </c>
       <c r="B24" s="2">
-        <v>147.8</v>
+        <v>147.80000000000001</v>
       </c>
       <c r="C24" s="3">
         <v>148.35</v>
       </c>
       <c r="D24" s="2">
-        <v>148.665</v>
+        <v>148.66499999999999</v>
       </c>
       <c r="E24" s="2">
-        <v>147.088</v>
+        <v>147.08799999999999</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1466,10 +845,10 @@
         <v>150.28</v>
       </c>
       <c r="C25" s="3">
-        <v>155.725</v>
+        <v>155.72499999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>156.737</v>
+        <v>156.73699999999999</v>
       </c>
       <c r="E25" s="2">
         <v>150.28</v>
@@ -1483,13 +862,13 @@
         <v>158.76</v>
       </c>
       <c r="C26" s="3">
-        <v>156.475</v>
+        <v>156.47499999999999</v>
       </c>
       <c r="D26" s="2">
         <v>158.76</v>
       </c>
       <c r="E26" s="2">
-        <v>155.3567</v>
+        <v>155.35669999999999</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1497,13 +876,13 @@
         <v>43868</v>
       </c>
       <c r="B27" s="2">
-        <v>154.55</v>
+        <v>154.55000000000001</v>
       </c>
       <c r="C27" s="3">
-        <v>154.175</v>
+        <v>154.17500000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>155.171</v>
+        <v>155.17099999999999</v>
       </c>
       <c r="E27" s="2">
         <v>153.316</v>
@@ -1517,13 +896,13 @@
         <v>152.97</v>
       </c>
       <c r="C28" s="3">
-        <v>152.8</v>
+        <v>152.80000000000001</v>
       </c>
       <c r="D28" s="2">
-        <v>153.391</v>
+        <v>153.39099999999999</v>
       </c>
       <c r="E28" s="2">
-        <v>151.795</v>
+        <v>151.79499999999999</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1534,7 +913,7 @@
         <v>155.12</v>
       </c>
       <c r="C29" s="3">
-        <v>154.075</v>
+        <v>154.07499999999999</v>
       </c>
       <c r="D29" s="2">
         <v>155.12</v>
@@ -1548,16 +927,16 @@
         <v>43873</v>
       </c>
       <c r="B30" s="2">
-        <v>153.961</v>
+        <v>153.96100000000001</v>
       </c>
       <c r="C30" s="3">
-        <v>154.8</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D30" s="2">
         <v>155.154</v>
       </c>
       <c r="E30" s="2">
-        <v>153.043</v>
+        <v>153.04300000000001</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1568,13 +947,13 @@
         <v>154.37</v>
       </c>
       <c r="C31" s="3">
-        <v>154.325</v>
+        <v>154.32499999999999</v>
       </c>
       <c r="D31" s="2">
         <v>154.37</v>
       </c>
       <c r="E31" s="2">
-        <v>152.872</v>
+        <v>152.87200000000001</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1582,10 +961,10 @@
         <v>43875</v>
       </c>
       <c r="B32" s="2">
-        <v>154.121</v>
+        <v>154.12100000000001</v>
       </c>
       <c r="C32" s="3">
-        <v>151.925</v>
+        <v>151.92500000000001</v>
       </c>
       <c r="D32" s="2">
         <v>156.41</v>
@@ -1602,10 +981,10 @@
         <v>149.75</v>
       </c>
       <c r="C33" s="3">
-        <v>150.075</v>
+        <v>150.07499999999999</v>
       </c>
       <c r="D33" s="2">
-        <v>151.205</v>
+        <v>151.20500000000001</v>
       </c>
       <c r="E33" s="2">
         <v>149.535</v>
@@ -1625,7 +1004,7 @@
         <v>151.845</v>
       </c>
       <c r="E34" s="2">
-        <v>150.163</v>
+        <v>150.16300000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1633,10 +1012,10 @@
         <v>43881</v>
       </c>
       <c r="B35" s="2">
-        <v>150.86</v>
+        <v>150.86000000000001</v>
       </c>
       <c r="C35" s="3">
-        <v>150.775</v>
+        <v>150.77500000000001</v>
       </c>
       <c r="D35" s="2">
         <v>151.76</v>
@@ -1650,16 +1029,16 @@
         <v>43882</v>
       </c>
       <c r="B36" s="2">
-        <v>149.64</v>
+        <v>149.63999999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>150.175</v>
+        <v>150.17500000000001</v>
       </c>
       <c r="D36" s="2">
         <v>150.291</v>
       </c>
       <c r="E36" s="2">
-        <v>148.681</v>
+        <v>148.68100000000001</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1687,13 +1066,13 @@
         <v>146.5</v>
       </c>
       <c r="C38" s="3">
-        <v>144.8</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="D38" s="2">
-        <v>147.406</v>
+        <v>147.40600000000001</v>
       </c>
       <c r="E38" s="2">
-        <v>144.585</v>
+        <v>144.58500000000001</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1704,13 +1083,13 @@
         <v>142.9</v>
       </c>
       <c r="C39" s="3">
-        <v>143.675</v>
+        <v>143.67500000000001</v>
       </c>
       <c r="D39" s="2">
         <v>143.82</v>
       </c>
       <c r="E39" s="2">
-        <v>142.695</v>
+        <v>142.69499999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1721,13 +1100,13 @@
         <v>136.99</v>
       </c>
       <c r="C40" s="3">
-        <v>141.775</v>
+        <v>141.77500000000001</v>
       </c>
       <c r="D40" s="2">
-        <v>141.775</v>
+        <v>141.77500000000001</v>
       </c>
       <c r="E40" s="2">
-        <v>135.331</v>
+        <v>135.33099999999999</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1735,7 +1114,7 @@
         <v>43889</v>
       </c>
       <c r="B41" s="2">
-        <v>129.52</v>
+        <v>129.52000000000001</v>
       </c>
       <c r="C41" s="3">
         <v>128.65</v>
@@ -1761,7 +1140,7 @@
         <v>130.76</v>
       </c>
       <c r="E42" s="2">
-        <v>127.918</v>
+        <v>127.91800000000001</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1772,10 +1151,10 @@
         <v>130.65</v>
       </c>
       <c r="C43" s="3">
-        <v>134.55</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="D43" s="2">
-        <v>134.55</v>
+        <v>134.55000000000001</v>
       </c>
       <c r="E43" s="2">
         <v>130.65</v>
@@ -1795,7 +1174,7 @@
         <v>134.6</v>
       </c>
       <c r="E44" s="2">
-        <v>129.299</v>
+        <v>129.29900000000001</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1823,10 +1202,10 @@
         <v>126.18</v>
       </c>
       <c r="C46" s="3">
-        <v>132.275</v>
+        <v>132.27500000000001</v>
       </c>
       <c r="D46" s="2">
-        <v>132.275</v>
+        <v>132.27500000000001</v>
       </c>
       <c r="E46" s="2">
         <v>125.01</v>
@@ -1840,10 +1219,10 @@
         <v>120.89</v>
       </c>
       <c r="C47" s="3">
-        <v>132.275</v>
+        <v>132.27500000000001</v>
       </c>
       <c r="D47" s="2">
-        <v>132.275</v>
+        <v>132.27500000000001</v>
       </c>
       <c r="E47" s="2">
         <v>119.729</v>
@@ -1860,7 +1239,7 @@
         <v>120.6</v>
       </c>
       <c r="D48" s="2">
-        <v>122.689</v>
+        <v>122.68899999999999</v>
       </c>
       <c r="E48" s="2">
         <v>116.2</v>
@@ -1891,7 +1270,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="3">
-        <v>103.775</v>
+        <v>103.77500000000001</v>
       </c>
       <c r="D50" s="2">
         <v>109</v>
@@ -1928,7 +1307,7 @@
         <v>104.545</v>
       </c>
       <c r="D52" s="2">
-        <v>107.3881</v>
+        <v>107.38809999999999</v>
       </c>
       <c r="E52" s="2">
         <v>95</v>
@@ -1942,7 +1321,7 @@
         <v>101.7881</v>
       </c>
       <c r="C53" s="3">
-        <v>102.945</v>
+        <v>102.94499999999999</v>
       </c>
       <c r="D53" s="2">
         <v>105.6</v>
@@ -1999,7 +1378,7 @@
         <v>100.92</v>
       </c>
       <c r="E56" s="2">
-        <v>96.223</v>
+        <v>96.222999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2033,7 +1412,7 @@
         <v>103.616</v>
       </c>
       <c r="E58" s="2">
-        <v>99.715</v>
+        <v>99.715000000000003</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2061,7 +1440,7 @@
         <v>106.91</v>
       </c>
       <c r="C60" s="3">
-        <v>110.975</v>
+        <v>110.97499999999999</v>
       </c>
       <c r="D60" s="2">
         <v>111.824</v>
@@ -2081,7 +1460,7 @@
         <v>109.175</v>
       </c>
       <c r="D61" s="2">
-        <v>110.9321</v>
+        <v>110.93210000000001</v>
       </c>
       <c r="E61" s="2">
         <v>107.7706</v>
@@ -2101,7 +1480,7 @@
         <v>113.875</v>
       </c>
       <c r="E62" s="2">
-        <v>108.177</v>
+        <v>108.17700000000001</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2135,7 +1514,7 @@
         <v>113.4</v>
       </c>
       <c r="E64" s="2">
-        <v>105.3834</v>
+        <v>105.38339999999999</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2166,7 +1545,7 @@
         <v>107.8</v>
       </c>
       <c r="D66" s="2">
-        <v>110.385</v>
+        <v>110.38500000000001</v>
       </c>
       <c r="E66" s="2">
         <v>107.474</v>
@@ -2197,7 +1576,7 @@
         <v>114.82</v>
       </c>
       <c r="C68" s="3">
-        <v>119.225</v>
+        <v>119.22499999999999</v>
       </c>
       <c r="D68" s="2">
         <v>119.762</v>
@@ -2234,7 +1613,7 @@
         <v>120.55</v>
       </c>
       <c r="D70" s="2">
-        <v>122.058</v>
+        <v>122.05800000000001</v>
       </c>
       <c r="E70" s="2">
         <v>120.36</v>
@@ -2268,7 +1647,7 @@
         <v>123.7</v>
       </c>
       <c r="D72" s="2">
-        <v>125.2733</v>
+        <v>125.27330000000001</v>
       </c>
       <c r="E72" s="2">
         <v>122.66</v>
@@ -2299,7 +1678,7 @@
         <v>118.69</v>
       </c>
       <c r="C74" s="3">
-        <v>116.275</v>
+        <v>116.27500000000001</v>
       </c>
       <c r="D74" s="2">
         <v>119.01</v>
@@ -2333,10 +1712,10 @@
         <v>118.71</v>
       </c>
       <c r="C76" s="3">
-        <v>123.475</v>
+        <v>123.47499999999999</v>
       </c>
       <c r="D76" s="2">
-        <v>123.475</v>
+        <v>123.47499999999999</v>
       </c>
       <c r="E76" s="2">
         <v>117.711</v>
@@ -2350,10 +1729,10 @@
         <v>113.87</v>
       </c>
       <c r="C77" s="3">
-        <v>123.475</v>
+        <v>123.47499999999999</v>
       </c>
       <c r="D77" s="2">
-        <v>123.475</v>
+        <v>123.47499999999999</v>
       </c>
       <c r="E77" s="2">
         <v>112.2</v>
@@ -2438,7 +1817,7 @@
         <v>126.45</v>
       </c>
       <c r="D82" s="2">
-        <v>128.33</v>
+        <v>128.33000000000001</v>
       </c>
       <c r="E82" s="2">
         <v>125.4</v>
@@ -2452,10 +1831,10 @@
         <v>129</v>
       </c>
       <c r="C83" s="3">
-        <v>128.7</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="D83" s="2">
-        <v>129.5469</v>
+        <v>129.54689999999999</v>
       </c>
       <c r="E83" s="2">
         <v>127.4404</v>
@@ -2472,7 +1851,7 @@
         <v>126.4</v>
       </c>
       <c r="D84" s="2">
-        <v>127.5584</v>
+        <v>127.55840000000001</v>
       </c>
       <c r="E84" s="2">
         <v>125.4949</v>
@@ -2492,7 +1871,7 @@
         <v>124.35</v>
       </c>
       <c r="E85" s="2">
-        <v>121.9672</v>
+        <v>121.96720000000001</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2588,10 +1967,10 @@
         <v>121.41</v>
       </c>
       <c r="C91" s="3">
-        <v>123.975</v>
+        <v>123.97499999999999</v>
       </c>
       <c r="D91" s="2">
-        <v>123.975</v>
+        <v>123.97499999999999</v>
       </c>
       <c r="E91" s="2">
         <v>120.3134</v>
@@ -2622,13 +2001,13 @@
         <v>119.3523</v>
       </c>
       <c r="C93" s="3">
-        <v>121.475</v>
+        <v>121.47499999999999</v>
       </c>
       <c r="D93" s="2">
-        <v>121.475</v>
+        <v>121.47499999999999</v>
       </c>
       <c r="E93" s="2">
-        <v>115.3735</v>
+        <v>115.37350000000001</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2639,10 +2018,10 @@
         <v>114.3</v>
       </c>
       <c r="C94" s="3">
-        <v>121.475</v>
+        <v>121.47499999999999</v>
       </c>
       <c r="D94" s="2">
-        <v>121.475</v>
+        <v>121.47499999999999</v>
       </c>
       <c r="E94" s="2">
         <v>111.91</v>
@@ -2662,7 +2041,7 @@
         <v>121.075</v>
       </c>
       <c r="E95" s="2">
-        <v>115.9964</v>
+        <v>115.99639999999999</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2679,7 +2058,7 @@
         <v>123.675</v>
       </c>
       <c r="E96" s="2">
-        <v>119.8919</v>
+        <v>119.89190000000001</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2713,7 +2092,7 @@
         <v>123.925</v>
       </c>
       <c r="E98" s="2">
-        <v>120.6796</v>
+        <v>120.67959999999999</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2724,10 +2103,10 @@
         <v>120.6</v>
       </c>
       <c r="C99" s="3">
-        <v>122.725</v>
+        <v>122.72499999999999</v>
       </c>
       <c r="D99" s="2">
-        <v>122.725</v>
+        <v>122.72499999999999</v>
       </c>
       <c r="E99" s="2">
         <v>119.5</v>
@@ -2781,7 +2160,7 @@
         <v>125.685</v>
       </c>
       <c r="E102" s="2">
-        <v>124.365</v>
+        <v>124.36499999999999</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2829,7 +2208,7 @@
         <v>124.925</v>
       </c>
       <c r="D105" s="2">
-        <v>125.525</v>
+        <v>125.52500000000001</v>
       </c>
       <c r="E105" s="2">
         <v>124.1811</v>
@@ -2860,7 +2239,7 @@
         <v>127.215</v>
       </c>
       <c r="C107" s="3">
-        <v>128.975</v>
+        <v>128.97499999999999</v>
       </c>
       <c r="D107" s="2">
         <v>129.4315</v>
@@ -2874,13 +2253,13 @@
         <v>43986</v>
       </c>
       <c r="B108" s="2">
-        <v>129.05</v>
+        <v>129.05000000000001</v>
       </c>
       <c r="C108" s="3">
         <v>127.55</v>
       </c>
       <c r="D108" s="2">
-        <v>129.05</v>
+        <v>129.05000000000001</v>
       </c>
       <c r="E108" s="2">
         <v>127.32</v>
@@ -2891,16 +2270,16 @@
         <v>43987</v>
       </c>
       <c r="B109" s="2">
-        <v>133.2898</v>
+        <v>133.28980000000001</v>
       </c>
       <c r="C109" s="3">
-        <v>132.7</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="D109" s="2">
-        <v>134.8</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="E109" s="2">
-        <v>132.2644</v>
+        <v>132.26439999999999</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2908,7 +2287,7 @@
         <v>43990</v>
       </c>
       <c r="B110" s="2">
-        <v>132.27</v>
+        <v>132.27000000000001</v>
       </c>
       <c r="C110" s="3">
         <v>133.875</v>
@@ -2917,7 +2296,7 @@
         <v>134.995</v>
       </c>
       <c r="E110" s="2">
-        <v>132.27</v>
+        <v>132.27000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2928,13 +2307,13 @@
         <v>133.31</v>
       </c>
       <c r="C111" s="3">
-        <v>132.025</v>
+        <v>132.02500000000001</v>
       </c>
       <c r="D111" s="2">
-        <v>133.52</v>
+        <v>133.52000000000001</v>
       </c>
       <c r="E111" s="2">
-        <v>131.2078</v>
+        <v>131.20779999999999</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2942,16 +2321,16 @@
         <v>43992</v>
       </c>
       <c r="B112" s="2">
-        <v>131.605</v>
+        <v>131.60499999999999</v>
       </c>
       <c r="C112" s="3">
         <v>131.15</v>
       </c>
       <c r="D112" s="2">
-        <v>131.605</v>
+        <v>131.60499999999999</v>
       </c>
       <c r="E112" s="2">
-        <v>130.3</v>
+        <v>130.30000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2990,7 +2369,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chapter-1/Exercise-1/IBM.xlsx
+++ b/Chapter-1/Exercise-1/IBM.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaka/Documents/financial-model-and-calculation/Chapter-1/Exercise-1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FBBB88-FA29-1C45-AA3B-1D17DDEA80E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19940" windowHeight="7960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19335" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="IBM" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,6 +39,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
+    <t>日期</t>
+  </si>
+  <si>
     <t>开盘价</t>
   </si>
   <si>
@@ -56,25 +53,170 @@
   <si>
     <t>最低价</t>
   </si>
-  <si>
-    <t>日期</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="###,###,##0.00000"/>
-    <numFmt numFmtId="169" formatCode="###,###,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="###,###,##0.00000"/>
+    <numFmt numFmtId="179" formatCode="###,###,##0.0000"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,15 +226,201 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -100,29 +428,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,41 +1023,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.5047619047619" customWidth="1"/>
+    <col min="3" max="3" width="10.5047619047619" customWidth="1"/>
+    <col min="4" max="5" width="9.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -451,10 +1065,10 @@
         <v>43832</v>
       </c>
       <c r="B2" s="2">
-        <v>135.19999999999999</v>
+        <v>135.2</v>
       </c>
       <c r="C2" s="3">
-        <v>135.77500000000001</v>
+        <v>135.775</v>
       </c>
       <c r="D2" s="2">
         <v>135.82</v>
@@ -488,10 +1102,10 @@
         <v>133.29</v>
       </c>
       <c r="C4" s="3">
-        <v>133.92500000000001</v>
+        <v>133.925</v>
       </c>
       <c r="D4" s="2">
-        <v>134.27699999999999</v>
+        <v>134.277</v>
       </c>
       <c r="E4" s="2">
         <v>133.21</v>
@@ -502,16 +1116,16 @@
         <v>43837</v>
       </c>
       <c r="B5" s="2">
-        <v>133.41999999999999</v>
+        <v>133.42</v>
       </c>
       <c r="C5" s="3">
-        <v>134.77500000000001</v>
+        <v>134.775</v>
       </c>
       <c r="D5" s="2">
         <v>134.815</v>
       </c>
       <c r="E5" s="2">
-        <v>133.41999999999999</v>
+        <v>133.42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -522,10 +1136,10 @@
         <v>134.24</v>
       </c>
       <c r="C6" s="3">
-        <v>135.07499999999999</v>
+        <v>135.075</v>
       </c>
       <c r="D6" s="2">
-        <v>135.25800000000001</v>
+        <v>135.258</v>
       </c>
       <c r="E6" s="2">
         <v>134.24</v>
@@ -542,7 +1156,7 @@
         <v>136.6</v>
       </c>
       <c r="D7" s="2">
-        <v>136.74299999999999</v>
+        <v>136.743</v>
       </c>
       <c r="E7" s="2">
         <v>135.488</v>
@@ -556,13 +1170,13 @@
         <v>137</v>
       </c>
       <c r="C8" s="3">
-        <v>137.05000000000001</v>
+        <v>137.05</v>
       </c>
       <c r="D8" s="2">
-        <v>138.34700000000001</v>
+        <v>138.347</v>
       </c>
       <c r="E8" s="2">
-        <v>136.81100000000001</v>
+        <v>136.811</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -570,13 +1184,13 @@
         <v>43843</v>
       </c>
       <c r="B9" s="2">
-        <v>135.47999999999999</v>
+        <v>135.48</v>
       </c>
       <c r="C9" s="3">
         <v>135.125</v>
       </c>
       <c r="D9" s="2">
-        <v>136.05000000000001</v>
+        <v>136.05</v>
       </c>
       <c r="E9" s="2">
         <v>135.125</v>
@@ -590,7 +1204,7 @@
         <v>136.54</v>
       </c>
       <c r="C10" s="3">
-        <v>136.92500000000001</v>
+        <v>136.925</v>
       </c>
       <c r="D10" s="2">
         <v>137</v>
@@ -607,10 +1221,10 @@
         <v>137</v>
       </c>
       <c r="C11" s="3">
-        <v>137.55000000000001</v>
+        <v>137.55</v>
       </c>
       <c r="D11" s="2">
-        <v>137.93600000000001</v>
+        <v>137.936</v>
       </c>
       <c r="E11" s="2">
         <v>136.9</v>
@@ -624,10 +1238,10 @@
         <v>137.32</v>
       </c>
       <c r="C12" s="3">
-        <v>138.17500000000001</v>
+        <v>138.175</v>
       </c>
       <c r="D12" s="2">
-        <v>138.17500000000001</v>
+        <v>138.175</v>
       </c>
       <c r="E12" s="2">
         <v>137.29</v>
@@ -641,13 +1255,13 @@
         <v>136.84</v>
       </c>
       <c r="C13" s="3">
-        <v>136.67500000000001</v>
+        <v>136.675</v>
       </c>
       <c r="D13" s="2">
-        <v>137.84299999999999</v>
+        <v>137.843</v>
       </c>
       <c r="E13" s="2">
-        <v>136.33000000000001</v>
+        <v>136.33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -661,7 +1275,7 @@
         <v>138.4</v>
       </c>
       <c r="D14" s="2">
-        <v>138.77199999999999</v>
+        <v>138.772</v>
       </c>
       <c r="E14" s="2">
         <v>137.9</v>
@@ -672,16 +1286,16 @@
         <v>43852</v>
       </c>
       <c r="B15" s="2">
-        <v>143.05000000000001</v>
+        <v>143.05</v>
       </c>
       <c r="C15" s="3">
-        <v>143.92500000000001</v>
+        <v>143.925</v>
       </c>
       <c r="D15" s="2">
-        <v>145.77600000000001</v>
+        <v>145.776</v>
       </c>
       <c r="E15" s="2">
-        <v>143.05000000000001</v>
+        <v>143.05</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -689,13 +1303,13 @@
         <v>43853</v>
       </c>
       <c r="B16" s="2">
-        <v>144.40600000000001</v>
+        <v>144.406</v>
       </c>
       <c r="C16" s="3">
         <v>142.4</v>
       </c>
       <c r="D16" s="2">
-        <v>144.40600000000001</v>
+        <v>144.406</v>
       </c>
       <c r="E16" s="2">
         <v>141.858</v>
@@ -706,13 +1320,13 @@
         <v>43854</v>
       </c>
       <c r="B17" s="2">
-        <v>143.38999999999999</v>
+        <v>143.39</v>
       </c>
       <c r="C17" s="3">
         <v>141.75</v>
       </c>
       <c r="D17" s="2">
-        <v>143.81800000000001</v>
+        <v>143.818</v>
       </c>
       <c r="E17" s="2">
         <v>141.465</v>
@@ -729,7 +1343,7 @@
         <v>138.65</v>
       </c>
       <c r="D18" s="2">
-        <v>139.99799999999999</v>
+        <v>139.998</v>
       </c>
       <c r="E18" s="2">
         <v>138.227</v>
@@ -743,10 +1357,10 @@
         <v>138.62</v>
       </c>
       <c r="C19" s="3">
-        <v>140.07499999999999</v>
+        <v>140.075</v>
       </c>
       <c r="D19" s="2">
-        <v>140.42099999999999</v>
+        <v>140.421</v>
       </c>
       <c r="E19" s="2">
         <v>138.62</v>
@@ -757,16 +1371,16 @@
         <v>43859</v>
       </c>
       <c r="B20" s="2">
-        <v>139.19999999999999</v>
+        <v>139.2</v>
       </c>
       <c r="C20" s="3">
-        <v>138.94999999999999</v>
+        <v>138.95</v>
       </c>
       <c r="D20" s="2">
-        <v>139.19999999999999</v>
+        <v>139.2</v>
       </c>
       <c r="E20" s="2">
-        <v>137.54599999999999</v>
+        <v>137.546</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -777,13 +1391,13 @@
         <v>137.69</v>
       </c>
       <c r="C21" s="3">
-        <v>135.82499999999999</v>
+        <v>135.825</v>
       </c>
       <c r="D21" s="2">
         <v>137.69</v>
       </c>
       <c r="E21" s="2">
-        <v>135.13499999999999</v>
+        <v>135.135</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -794,13 +1408,13 @@
         <v>145</v>
       </c>
       <c r="C22" s="3">
-        <v>142.19999999999999</v>
+        <v>142.2</v>
       </c>
       <c r="D22" s="2">
         <v>145</v>
       </c>
       <c r="E22" s="2">
-        <v>141.41200000000001</v>
+        <v>141.412</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -825,16 +1439,16 @@
         <v>43865</v>
       </c>
       <c r="B24" s="2">
-        <v>147.80000000000001</v>
+        <v>147.8</v>
       </c>
       <c r="C24" s="3">
         <v>148.35</v>
       </c>
       <c r="D24" s="2">
-        <v>148.66499999999999</v>
+        <v>148.665</v>
       </c>
       <c r="E24" s="2">
-        <v>147.08799999999999</v>
+        <v>147.088</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -845,10 +1459,10 @@
         <v>150.28</v>
       </c>
       <c r="C25" s="3">
-        <v>155.72499999999999</v>
+        <v>155.725</v>
       </c>
       <c r="D25" s="2">
-        <v>156.73699999999999</v>
+        <v>156.737</v>
       </c>
       <c r="E25" s="2">
         <v>150.28</v>
@@ -862,13 +1476,13 @@
         <v>158.76</v>
       </c>
       <c r="C26" s="3">
-        <v>156.47499999999999</v>
+        <v>156.475</v>
       </c>
       <c r="D26" s="2">
         <v>158.76</v>
       </c>
       <c r="E26" s="2">
-        <v>155.35669999999999</v>
+        <v>155.3567</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -876,13 +1490,13 @@
         <v>43868</v>
       </c>
       <c r="B27" s="2">
-        <v>154.55000000000001</v>
+        <v>154.55</v>
       </c>
       <c r="C27" s="3">
-        <v>154.17500000000001</v>
+        <v>154.175</v>
       </c>
       <c r="D27" s="2">
-        <v>155.17099999999999</v>
+        <v>155.171</v>
       </c>
       <c r="E27" s="2">
         <v>153.316</v>
@@ -896,13 +1510,13 @@
         <v>152.97</v>
       </c>
       <c r="C28" s="3">
-        <v>152.80000000000001</v>
+        <v>152.8</v>
       </c>
       <c r="D28" s="2">
-        <v>153.39099999999999</v>
+        <v>153.391</v>
       </c>
       <c r="E28" s="2">
-        <v>151.79499999999999</v>
+        <v>151.795</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -913,7 +1527,7 @@
         <v>155.12</v>
       </c>
       <c r="C29" s="3">
-        <v>154.07499999999999</v>
+        <v>154.075</v>
       </c>
       <c r="D29" s="2">
         <v>155.12</v>
@@ -927,16 +1541,16 @@
         <v>43873</v>
       </c>
       <c r="B30" s="2">
-        <v>153.96100000000001</v>
+        <v>153.961</v>
       </c>
       <c r="C30" s="3">
-        <v>154.80000000000001</v>
+        <v>154.8</v>
       </c>
       <c r="D30" s="2">
         <v>155.154</v>
       </c>
       <c r="E30" s="2">
-        <v>153.04300000000001</v>
+        <v>153.043</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -947,13 +1561,13 @@
         <v>154.37</v>
       </c>
       <c r="C31" s="3">
-        <v>154.32499999999999</v>
+        <v>154.325</v>
       </c>
       <c r="D31" s="2">
         <v>154.37</v>
       </c>
       <c r="E31" s="2">
-        <v>152.87200000000001</v>
+        <v>152.872</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -961,10 +1575,10 @@
         <v>43875</v>
       </c>
       <c r="B32" s="2">
-        <v>154.12100000000001</v>
+        <v>154.121</v>
       </c>
       <c r="C32" s="3">
-        <v>151.92500000000001</v>
+        <v>151.925</v>
       </c>
       <c r="D32" s="2">
         <v>156.41</v>
@@ -981,10 +1595,10 @@
         <v>149.75</v>
       </c>
       <c r="C33" s="3">
-        <v>150.07499999999999</v>
+        <v>150.075</v>
       </c>
       <c r="D33" s="2">
-        <v>151.20500000000001</v>
+        <v>151.205</v>
       </c>
       <c r="E33" s="2">
         <v>149.535</v>
@@ -1004,7 +1618,7 @@
         <v>151.845</v>
       </c>
       <c r="E34" s="2">
-        <v>150.16300000000001</v>
+        <v>150.163</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1012,10 +1626,10 @@
         <v>43881</v>
       </c>
       <c r="B35" s="2">
-        <v>150.86000000000001</v>
+        <v>150.86</v>
       </c>
       <c r="C35" s="3">
-        <v>150.77500000000001</v>
+        <v>150.775</v>
       </c>
       <c r="D35" s="2">
         <v>151.76</v>
@@ -1029,16 +1643,16 @@
         <v>43882</v>
       </c>
       <c r="B36" s="2">
-        <v>149.63999999999999</v>
+        <v>149.64</v>
       </c>
       <c r="C36" s="3">
-        <v>150.17500000000001</v>
+        <v>150.175</v>
       </c>
       <c r="D36" s="2">
         <v>150.291</v>
       </c>
       <c r="E36" s="2">
-        <v>148.68100000000001</v>
+        <v>148.681</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1066,13 +1680,13 @@
         <v>146.5</v>
       </c>
       <c r="C38" s="3">
-        <v>144.80000000000001</v>
+        <v>144.8</v>
       </c>
       <c r="D38" s="2">
-        <v>147.40600000000001</v>
+        <v>147.406</v>
       </c>
       <c r="E38" s="2">
-        <v>144.58500000000001</v>
+        <v>144.585</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1083,13 +1697,13 @@
         <v>142.9</v>
       </c>
       <c r="C39" s="3">
-        <v>143.67500000000001</v>
+        <v>143.675</v>
       </c>
       <c r="D39" s="2">
         <v>143.82</v>
       </c>
       <c r="E39" s="2">
-        <v>142.69499999999999</v>
+        <v>142.695</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1100,13 +1714,13 @@
         <v>136.99</v>
       </c>
       <c r="C40" s="3">
-        <v>141.77500000000001</v>
+        <v>141.775</v>
       </c>
       <c r="D40" s="2">
-        <v>141.77500000000001</v>
+        <v>141.775</v>
       </c>
       <c r="E40" s="2">
-        <v>135.33099999999999</v>
+        <v>135.331</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1114,7 +1728,7 @@
         <v>43889</v>
       </c>
       <c r="B41" s="2">
-        <v>129.52000000000001</v>
+        <v>129.52</v>
       </c>
       <c r="C41" s="3">
         <v>128.65</v>
@@ -1140,7 +1754,7 @@
         <v>130.76</v>
       </c>
       <c r="E42" s="2">
-        <v>127.91800000000001</v>
+        <v>127.918</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1151,10 +1765,10 @@
         <v>130.65</v>
       </c>
       <c r="C43" s="3">
-        <v>134.55000000000001</v>
+        <v>134.55</v>
       </c>
       <c r="D43" s="2">
-        <v>134.55000000000001</v>
+        <v>134.55</v>
       </c>
       <c r="E43" s="2">
         <v>130.65</v>
@@ -1174,7 +1788,7 @@
         <v>134.6</v>
       </c>
       <c r="E44" s="2">
-        <v>129.29900000000001</v>
+        <v>129.299</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1202,10 +1816,10 @@
         <v>126.18</v>
       </c>
       <c r="C46" s="3">
-        <v>132.27500000000001</v>
+        <v>132.275</v>
       </c>
       <c r="D46" s="2">
-        <v>132.27500000000001</v>
+        <v>132.275</v>
       </c>
       <c r="E46" s="2">
         <v>125.01</v>
@@ -1219,10 +1833,10 @@
         <v>120.89</v>
       </c>
       <c r="C47" s="3">
-        <v>132.27500000000001</v>
+        <v>132.275</v>
       </c>
       <c r="D47" s="2">
-        <v>132.27500000000001</v>
+        <v>132.275</v>
       </c>
       <c r="E47" s="2">
         <v>119.729</v>
@@ -1239,7 +1853,7 @@
         <v>120.6</v>
       </c>
       <c r="D48" s="2">
-        <v>122.68899999999999</v>
+        <v>122.689</v>
       </c>
       <c r="E48" s="2">
         <v>116.2</v>
@@ -1270,7 +1884,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="3">
-        <v>103.77500000000001</v>
+        <v>103.775</v>
       </c>
       <c r="D50" s="2">
         <v>109</v>
@@ -1307,7 +1921,7 @@
         <v>104.545</v>
       </c>
       <c r="D52" s="2">
-        <v>107.38809999999999</v>
+        <v>107.3881</v>
       </c>
       <c r="E52" s="2">
         <v>95</v>
@@ -1321,7 +1935,7 @@
         <v>101.7881</v>
       </c>
       <c r="C53" s="3">
-        <v>102.94499999999999</v>
+        <v>102.945</v>
       </c>
       <c r="D53" s="2">
         <v>105.6</v>
@@ -1378,7 +1992,7 @@
         <v>100.92</v>
       </c>
       <c r="E56" s="2">
-        <v>96.222999999999999</v>
+        <v>96.223</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1412,7 +2026,7 @@
         <v>103.616</v>
       </c>
       <c r="E58" s="2">
-        <v>99.715000000000003</v>
+        <v>99.715</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1440,7 +2054,7 @@
         <v>106.91</v>
       </c>
       <c r="C60" s="3">
-        <v>110.97499999999999</v>
+        <v>110.975</v>
       </c>
       <c r="D60" s="2">
         <v>111.824</v>
@@ -1460,7 +2074,7 @@
         <v>109.175</v>
       </c>
       <c r="D61" s="2">
-        <v>110.93210000000001</v>
+        <v>110.9321</v>
       </c>
       <c r="E61" s="2">
         <v>107.7706</v>
@@ -1480,7 +2094,7 @@
         <v>113.875</v>
       </c>
       <c r="E62" s="2">
-        <v>108.17700000000001</v>
+        <v>108.177</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1514,7 +2128,7 @@
         <v>113.4</v>
       </c>
       <c r="E64" s="2">
-        <v>105.38339999999999</v>
+        <v>105.3834</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1545,7 +2159,7 @@
         <v>107.8</v>
       </c>
       <c r="D66" s="2">
-        <v>110.38500000000001</v>
+        <v>110.385</v>
       </c>
       <c r="E66" s="2">
         <v>107.474</v>
@@ -1576,7 +2190,7 @@
         <v>114.82</v>
       </c>
       <c r="C68" s="3">
-        <v>119.22499999999999</v>
+        <v>119.225</v>
       </c>
       <c r="D68" s="2">
         <v>119.762</v>
@@ -1613,7 +2227,7 @@
         <v>120.55</v>
       </c>
       <c r="D70" s="2">
-        <v>122.05800000000001</v>
+        <v>122.058</v>
       </c>
       <c r="E70" s="2">
         <v>120.36</v>
@@ -1621,754 +2235,721 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B71" s="2">
-        <v>0</v>
+        <v>123.46</v>
       </c>
       <c r="C71" s="3">
-        <v>120.55</v>
+        <v>123.7</v>
       </c>
       <c r="D71" s="2">
-        <v>0</v>
+        <v>125.2733</v>
       </c>
       <c r="E71" s="2">
-        <v>0</v>
+        <v>122.66</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B72" s="2">
-        <v>123.46</v>
+        <v>119.12</v>
       </c>
       <c r="C72" s="3">
-        <v>123.7</v>
+        <v>117.15</v>
       </c>
       <c r="D72" s="2">
-        <v>125.27330000000001</v>
+        <v>120.4057</v>
       </c>
       <c r="E72" s="2">
-        <v>122.66</v>
+        <v>116.9252</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B73" s="2">
-        <v>119.12</v>
+        <v>118.69</v>
       </c>
       <c r="C73" s="3">
-        <v>117.15</v>
+        <v>116.275</v>
       </c>
       <c r="D73" s="2">
-        <v>120.4057</v>
+        <v>119.01</v>
       </c>
       <c r="E73" s="2">
-        <v>116.9252</v>
+        <v>114.6354</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B74" s="2">
-        <v>118.69</v>
+        <v>119.5</v>
       </c>
       <c r="C74" s="3">
-        <v>116.27500000000001</v>
+        <v>121.925</v>
       </c>
       <c r="D74" s="2">
-        <v>119.01</v>
+        <v>121.925</v>
       </c>
       <c r="E74" s="2">
-        <v>114.6354</v>
+        <v>118.32</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="B75" s="2">
-        <v>119.5</v>
+        <v>118.71</v>
       </c>
       <c r="C75" s="3">
-        <v>121.925</v>
+        <v>123.475</v>
       </c>
       <c r="D75" s="2">
-        <v>121.925</v>
+        <v>123.475</v>
       </c>
       <c r="E75" s="2">
-        <v>118.32</v>
+        <v>117.711</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B76" s="2">
-        <v>118.71</v>
+        <v>113.87</v>
       </c>
       <c r="C76" s="3">
-        <v>123.47499999999999</v>
+        <v>123.475</v>
       </c>
       <c r="D76" s="2">
-        <v>123.47499999999999</v>
+        <v>123.475</v>
       </c>
       <c r="E76" s="2">
-        <v>117.711</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B77" s="2">
-        <v>113.87</v>
+        <v>119.8548</v>
       </c>
       <c r="C77" s="3">
-        <v>123.47499999999999</v>
+        <v>121.6</v>
       </c>
       <c r="D77" s="2">
-        <v>123.47499999999999</v>
+        <v>121.6</v>
       </c>
       <c r="E77" s="2">
-        <v>112.2</v>
+        <v>117.8047</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B78" s="2">
-        <v>119.8548</v>
+        <v>120.85</v>
       </c>
       <c r="C78" s="3">
-        <v>121.6</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2">
-        <v>121.6</v>
+        <v>123</v>
       </c>
       <c r="E78" s="2">
-        <v>117.8047</v>
+        <v>119.395</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B79" s="2">
-        <v>120.85</v>
+        <v>122.1593</v>
       </c>
       <c r="C79" s="3">
         <v>123</v>
       </c>
       <c r="D79" s="2">
-        <v>123</v>
+        <v>123.5809</v>
       </c>
       <c r="E79" s="2">
-        <v>119.395</v>
+        <v>120.7153</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1">
-        <v>43945</v>
+        <v>43948</v>
       </c>
       <c r="B80" s="2">
-        <v>122.1593</v>
+        <v>125.5</v>
       </c>
       <c r="C80" s="3">
-        <v>123</v>
+        <v>126.55</v>
       </c>
       <c r="D80" s="2">
-        <v>123.5809</v>
+        <v>127.1709</v>
       </c>
       <c r="E80" s="2">
-        <v>120.7153</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B81" s="2">
-        <v>125.5</v>
+        <v>128.03</v>
       </c>
       <c r="C81" s="3">
-        <v>126.55</v>
+        <v>126.45</v>
       </c>
       <c r="D81" s="2">
-        <v>127.1709</v>
+        <v>128.33</v>
       </c>
       <c r="E81" s="2">
-        <v>125.5</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B82" s="2">
-        <v>128.03</v>
+        <v>129</v>
       </c>
       <c r="C82" s="3">
-        <v>126.45</v>
+        <v>128.7</v>
       </c>
       <c r="D82" s="2">
-        <v>128.33000000000001</v>
+        <v>129.5469</v>
       </c>
       <c r="E82" s="2">
-        <v>125.4</v>
+        <v>127.4404</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B83" s="2">
-        <v>129</v>
+        <v>126.538</v>
       </c>
       <c r="C83" s="3">
-        <v>128.69999999999999</v>
+        <v>126.4</v>
       </c>
       <c r="D83" s="2">
-        <v>129.54689999999999</v>
+        <v>127.5584</v>
       </c>
       <c r="E83" s="2">
-        <v>127.4404</v>
+        <v>125.4949</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B84" s="2">
-        <v>126.538</v>
+        <v>122.6165</v>
       </c>
       <c r="C84" s="3">
-        <v>126.4</v>
+        <v>124.35</v>
       </c>
       <c r="D84" s="2">
-        <v>127.55840000000001</v>
+        <v>124.35</v>
       </c>
       <c r="E84" s="2">
-        <v>125.4949</v>
+        <v>121.9672</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1">
-        <v>43952</v>
+        <v>43955</v>
       </c>
       <c r="B85" s="2">
-        <v>122.6165</v>
+        <v>120.92</v>
       </c>
       <c r="C85" s="3">
-        <v>124.35</v>
+        <v>123.1</v>
       </c>
       <c r="D85" s="2">
-        <v>124.35</v>
+        <v>123.1</v>
       </c>
       <c r="E85" s="2">
-        <v>121.96720000000001</v>
+        <v>119.486</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B86" s="2">
-        <v>120.92</v>
+        <v>124.1195</v>
       </c>
       <c r="C86" s="3">
-        <v>123.1</v>
+        <v>124.925</v>
       </c>
       <c r="D86" s="2">
-        <v>123.1</v>
+        <v>124.925</v>
       </c>
       <c r="E86" s="2">
-        <v>119.486</v>
+        <v>122.95</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B87" s="2">
-        <v>124.1195</v>
+        <v>123.49</v>
       </c>
       <c r="C87" s="3">
-        <v>124.925</v>
+        <v>124.45</v>
       </c>
       <c r="D87" s="2">
-        <v>124.925</v>
+        <v>124.45</v>
       </c>
       <c r="E87" s="2">
-        <v>122.95</v>
+        <v>122.545</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B88" s="2">
-        <v>123.49</v>
+        <v>122.8746</v>
       </c>
       <c r="C88" s="3">
-        <v>124.45</v>
+        <v>124.2</v>
       </c>
       <c r="D88" s="2">
-        <v>124.45</v>
+        <v>124.2</v>
       </c>
       <c r="E88" s="2">
-        <v>122.545</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="B89" s="2">
-        <v>122.8746</v>
+        <v>121.41</v>
       </c>
       <c r="C89" s="3">
-        <v>124.2</v>
+        <v>123.975</v>
       </c>
       <c r="D89" s="2">
-        <v>124.2</v>
+        <v>123.975</v>
       </c>
       <c r="E89" s="2">
-        <v>121.5</v>
+        <v>120.3134</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="B90" s="2">
-        <v>0</v>
+        <v>122.59</v>
       </c>
       <c r="C90" s="3">
-        <v>124.2</v>
+        <v>124.8</v>
       </c>
       <c r="D90" s="2">
-        <v>0</v>
+        <v>124.8</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>122.59</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1">
-        <v>43962</v>
+        <v>43964</v>
       </c>
       <c r="B91" s="2">
-        <v>121.41</v>
+        <v>119.3523</v>
       </c>
       <c r="C91" s="3">
-        <v>123.97499999999999</v>
+        <v>121.475</v>
       </c>
       <c r="D91" s="2">
-        <v>123.97499999999999</v>
+        <v>121.475</v>
       </c>
       <c r="E91" s="2">
-        <v>120.3134</v>
+        <v>115.3735</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1">
-        <v>43963</v>
+        <v>43965</v>
       </c>
       <c r="B92" s="2">
-        <v>122.59</v>
+        <v>114.3</v>
       </c>
       <c r="C92" s="3">
-        <v>124.8</v>
+        <v>121.475</v>
       </c>
       <c r="D92" s="2">
-        <v>124.8</v>
+        <v>121.475</v>
       </c>
       <c r="E92" s="2">
-        <v>122.59</v>
+        <v>111.91</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1">
-        <v>43964</v>
+        <v>43966</v>
       </c>
       <c r="B93" s="2">
-        <v>119.3523</v>
+        <v>116.5766</v>
       </c>
       <c r="C93" s="3">
-        <v>121.47499999999999</v>
+        <v>121.075</v>
       </c>
       <c r="D93" s="2">
-        <v>121.47499999999999</v>
+        <v>121.075</v>
       </c>
       <c r="E93" s="2">
-        <v>115.37350000000001</v>
+        <v>115.9964</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="1">
-        <v>43965</v>
+        <v>43969</v>
       </c>
       <c r="B94" s="2">
-        <v>114.3</v>
+        <v>120.842</v>
       </c>
       <c r="C94" s="3">
-        <v>121.47499999999999</v>
+        <v>123.675</v>
       </c>
       <c r="D94" s="2">
-        <v>121.47499999999999</v>
+        <v>123.675</v>
       </c>
       <c r="E94" s="2">
-        <v>111.91</v>
+        <v>119.8919</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="1">
-        <v>43966</v>
+        <v>43970</v>
       </c>
       <c r="B95" s="2">
-        <v>116.5766</v>
+        <v>120.93</v>
       </c>
       <c r="C95" s="3">
-        <v>121.075</v>
+        <v>123.925</v>
       </c>
       <c r="D95" s="2">
-        <v>121.075</v>
+        <v>123.925</v>
       </c>
       <c r="E95" s="2">
-        <v>115.99639999999999</v>
+        <v>120.791</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="1">
-        <v>43969</v>
+        <v>43971</v>
       </c>
       <c r="B96" s="2">
-        <v>120.842</v>
+        <v>120.93</v>
       </c>
       <c r="C96" s="3">
-        <v>123.675</v>
+        <v>123.925</v>
       </c>
       <c r="D96" s="2">
-        <v>123.675</v>
+        <v>123.925</v>
       </c>
       <c r="E96" s="2">
-        <v>119.89190000000001</v>
+        <v>120.6796</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="1">
-        <v>43970</v>
+        <v>43972</v>
       </c>
       <c r="B97" s="2">
-        <v>120.93</v>
+        <v>120.6</v>
       </c>
       <c r="C97" s="3">
-        <v>123.925</v>
+        <v>122.725</v>
       </c>
       <c r="D97" s="2">
-        <v>123.925</v>
+        <v>122.725</v>
       </c>
       <c r="E97" s="2">
-        <v>120.791</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="1">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="B98" s="2">
-        <v>120.93</v>
+        <v>119.12</v>
       </c>
       <c r="C98" s="3">
-        <v>123.925</v>
+        <v>122.125</v>
       </c>
       <c r="D98" s="2">
-        <v>123.925</v>
+        <v>122.125</v>
       </c>
       <c r="E98" s="2">
-        <v>120.67959999999999</v>
+        <v>117.6601</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="1">
-        <v>43972</v>
+        <v>43977</v>
       </c>
       <c r="B99" s="2">
-        <v>120.6</v>
+        <v>121.26</v>
       </c>
       <c r="C99" s="3">
-        <v>122.72499999999999</v>
+        <v>124.1</v>
       </c>
       <c r="D99" s="2">
-        <v>122.72499999999999</v>
+        <v>124.1</v>
       </c>
       <c r="E99" s="2">
-        <v>119.5</v>
+        <v>121.26</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="1">
-        <v>43973</v>
+        <v>43978</v>
       </c>
       <c r="B100" s="2">
-        <v>119.12</v>
+        <v>124.73</v>
       </c>
       <c r="C100" s="3">
-        <v>122.125</v>
+        <v>125.5</v>
       </c>
       <c r="D100" s="2">
-        <v>122.125</v>
+        <v>125.685</v>
       </c>
       <c r="E100" s="2">
-        <v>117.6601</v>
+        <v>124.365</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="1">
-        <v>43977</v>
+        <v>43979</v>
       </c>
       <c r="B101" s="2">
-        <v>121.26</v>
+        <v>126.63</v>
       </c>
       <c r="C101" s="3">
-        <v>124.1</v>
+        <v>125.75</v>
       </c>
       <c r="D101" s="2">
-        <v>124.1</v>
+        <v>126.63</v>
       </c>
       <c r="E101" s="2">
-        <v>121.26</v>
+        <v>125.09</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="1">
-        <v>43978</v>
+        <v>43980</v>
       </c>
       <c r="B102" s="2">
-        <v>124.73</v>
+        <v>123.6155</v>
       </c>
       <c r="C102" s="3">
-        <v>125.5</v>
+        <v>123.425</v>
       </c>
       <c r="D102" s="2">
-        <v>125.685</v>
+        <v>123.6155</v>
       </c>
       <c r="E102" s="2">
-        <v>124.36499999999999</v>
+        <v>122.495</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="1">
-        <v>43979</v>
+        <v>43983</v>
       </c>
       <c r="B103" s="2">
-        <v>126.63</v>
+        <v>124.64</v>
       </c>
       <c r="C103" s="3">
-        <v>125.75</v>
+        <v>124.925</v>
       </c>
       <c r="D103" s="2">
-        <v>126.63</v>
+        <v>125.525</v>
       </c>
       <c r="E103" s="2">
-        <v>125.09</v>
+        <v>124.1811</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="1">
-        <v>43980</v>
+        <v>43984</v>
       </c>
       <c r="B104" s="2">
-        <v>123.6155</v>
+        <v>125.67</v>
       </c>
       <c r="C104" s="3">
-        <v>123.425</v>
+        <v>125.5</v>
       </c>
       <c r="D104" s="2">
-        <v>123.6155</v>
+        <v>125.67</v>
       </c>
       <c r="E104" s="2">
-        <v>122.495</v>
+        <v>124.8989</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="1">
-        <v>43983</v>
+        <v>43985</v>
       </c>
       <c r="B105" s="2">
-        <v>124.64</v>
+        <v>127.215</v>
       </c>
       <c r="C105" s="3">
-        <v>124.925</v>
+        <v>128.975</v>
       </c>
       <c r="D105" s="2">
-        <v>125.52500000000001</v>
+        <v>129.4315</v>
       </c>
       <c r="E105" s="2">
-        <v>124.1811</v>
+        <v>127.15</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="1">
-        <v>43984</v>
+        <v>43986</v>
       </c>
       <c r="B106" s="2">
-        <v>125.67</v>
+        <v>129.05</v>
       </c>
       <c r="C106" s="3">
-        <v>125.5</v>
+        <v>127.55</v>
       </c>
       <c r="D106" s="2">
-        <v>125.67</v>
+        <v>129.05</v>
       </c>
       <c r="E106" s="2">
-        <v>124.8989</v>
+        <v>127.32</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="1">
-        <v>43985</v>
+        <v>43987</v>
       </c>
       <c r="B107" s="2">
-        <v>127.215</v>
+        <v>133.2898</v>
       </c>
       <c r="C107" s="3">
-        <v>128.97499999999999</v>
+        <v>132.7</v>
       </c>
       <c r="D107" s="2">
-        <v>129.4315</v>
+        <v>134.8</v>
       </c>
       <c r="E107" s="2">
-        <v>127.15</v>
+        <v>132.2644</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="1">
-        <v>43986</v>
+        <v>43990</v>
       </c>
       <c r="B108" s="2">
-        <v>129.05000000000001</v>
+        <v>132.27</v>
       </c>
       <c r="C108" s="3">
-        <v>127.55</v>
+        <v>133.875</v>
       </c>
       <c r="D108" s="2">
-        <v>129.05000000000001</v>
+        <v>134.995</v>
       </c>
       <c r="E108" s="2">
-        <v>127.32</v>
+        <v>132.27</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="1">
-        <v>43987</v>
+        <v>43991</v>
       </c>
       <c r="B109" s="2">
-        <v>133.28980000000001</v>
+        <v>133.31</v>
       </c>
       <c r="C109" s="3">
-        <v>132.69999999999999</v>
+        <v>132.025</v>
       </c>
       <c r="D109" s="2">
-        <v>134.80000000000001</v>
+        <v>133.52</v>
       </c>
       <c r="E109" s="2">
-        <v>132.26439999999999</v>
+        <v>131.2078</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="1">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="B110" s="2">
-        <v>132.27000000000001</v>
+        <v>131.605</v>
       </c>
       <c r="C110" s="3">
-        <v>133.875</v>
+        <v>131.15</v>
       </c>
       <c r="D110" s="2">
-        <v>134.995</v>
+        <v>131.605</v>
       </c>
       <c r="E110" s="2">
-        <v>132.27000000000001</v>
+        <v>130.3</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="1">
-        <v>43991</v>
+        <v>43993</v>
       </c>
       <c r="B111" s="2">
-        <v>133.31</v>
+        <v>126</v>
       </c>
       <c r="C111" s="3">
-        <v>132.02500000000001</v>
+        <v>122.3</v>
       </c>
       <c r="D111" s="2">
-        <v>133.52000000000001</v>
+        <v>126</v>
       </c>
       <c r="E111" s="2">
-        <v>131.20779999999999</v>
+        <v>118.66</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="1">
-        <v>43992</v>
+        <v>43994</v>
       </c>
       <c r="B112" s="2">
-        <v>131.60499999999999</v>
+        <v>121.4</v>
       </c>
       <c r="C112" s="3">
-        <v>131.15</v>
+        <v>120.5</v>
       </c>
       <c r="D112" s="2">
-        <v>131.60499999999999</v>
+        <v>122.8177</v>
       </c>
       <c r="E112" s="2">
-        <v>130.30000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1">
-        <v>43993</v>
-      </c>
-      <c r="B113" s="2">
-        <v>126</v>
-      </c>
-      <c r="C113" s="3">
-        <v>122.3</v>
-      </c>
-      <c r="D113" s="2">
-        <v>126</v>
-      </c>
-      <c r="E113" s="2">
-        <v>118.66</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1">
-        <v>43994</v>
-      </c>
-      <c r="B114" s="2">
-        <v>121.4</v>
-      </c>
-      <c r="C114" s="3">
-        <v>120.5</v>
-      </c>
-      <c r="D114" s="2">
-        <v>122.8177</v>
-      </c>
-      <c r="E114" s="2">
         <v>119.91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>